--- a/Interleaved-Christian/evap_N_circ_cross_couter_flow/tuning_exp.xlsx
+++ b/Interleaved-Christian/evap_N_circ_cross_couter_flow/tuning_exp.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\Test\Interleaved-Christian\evap_N_circ_cross_couter_flow\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="345" windowWidth="25725" windowHeight="14850"/>
+    <workbookView xWindow="0" yWindow="690" windowWidth="25725" windowHeight="14850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>baseline</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>T_a</t>
+  </si>
+  <si>
+    <t>T_sup</t>
   </si>
 </sst>
 </file>
@@ -411,15 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,8 +435,11 @@
       <c r="D1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -446,8 +452,11 @@
       <c r="D2">
         <v>13.03</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>15.91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -460,8 +469,11 @@
       <c r="D3">
         <v>15.35</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>13.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -474,8 +486,11 @@
       <c r="D4">
         <v>12.12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -488,8 +503,11 @@
       <c r="D5">
         <v>12.78</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -502,8 +520,11 @@
       <c r="D6">
         <v>16.41</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>12.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -516,8 +537,11 @@
       <c r="D7">
         <v>16.36</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>13.66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -530,8 +554,11 @@
       <c r="D8">
         <v>17.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>12.47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -543,6 +570,9 @@
       </c>
       <c r="D9">
         <v>21.34</v>
+      </c>
+      <c r="E9">
+        <v>11.42</v>
       </c>
     </row>
   </sheetData>

--- a/Interleaved-Christian/evap_N_circ_cross_couter_flow/tuning_exp.xlsx
+++ b/Interleaved-Christian/evap_N_circ_cross_couter_flow/tuning_exp.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28016"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\Test\Interleaved-Christian\evap_N_circ_cross_couter_flow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ammarbahman/Desktop/Eclipse workspace/Trunk/Interleaved-Christian/evap_N_circ_cross_couter_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="690" windowWidth="25725" windowHeight="14850"/>
+    <workbookView xWindow="80" yWindow="700" windowWidth="25720" windowHeight="14860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>baseline</t>
   </si>
@@ -63,12 +69,15 @@
   </si>
   <si>
     <t>T_sup</t>
+  </si>
+  <si>
+    <t>V_a (cfm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,15 +423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +447,11 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -455,8 +467,11 @@
       <c r="E2">
         <v>15.91</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -472,8 +487,11 @@
       <c r="E3">
         <v>13.64</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -489,8 +507,11 @@
       <c r="E4">
         <v>15.83</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -506,8 +527,11 @@
       <c r="E5">
         <v>15.55</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -523,8 +547,11 @@
       <c r="E6">
         <v>12.78</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -540,8 +567,11 @@
       <c r="E7">
         <v>13.66</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -557,8 +587,11 @@
       <c r="E8">
         <v>12.47</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -573,6 +606,9 @@
       </c>
       <c r="E9">
         <v>11.42</v>
+      </c>
+      <c r="F9">
+        <v>1710</v>
       </c>
     </row>
   </sheetData>
